--- a/tests/testthat/fixtures/ex3/tables/irt_dich_booklet3.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_dich_booklet3.xlsx
@@ -495,34 +495,34 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D2" t="n">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E2" t="n">
-        <v>85.67</v>
+        <v>85.58</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.2</v>
+        <v>-2.19</v>
       </c>
       <c r="G2" t="n">
         <v>0.12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="K2" t="n">
         <v>0.08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -533,16 +533,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D3" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E3" t="n">
-        <v>58.85</v>
+        <v>58.7</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="G3" t="n">
         <v>0.09</v>
@@ -551,16 +551,16 @@
         <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="J3" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -571,25 +571,25 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D4" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E4" t="n">
-        <v>23.03</v>
+        <v>24.93</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="J4" t="n">
         <v>0.2</v>
@@ -598,7 +598,7 @@
         <v>0.07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D5" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E5" t="n">
-        <v>39.38</v>
+        <v>39.64</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="G5" t="n">
         <v>0.09</v>
@@ -627,16 +627,16 @@
         <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="J5" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="L5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -647,34 +647,34 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D6" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E6" t="n">
-        <v>37.21</v>
+        <v>37.46</v>
       </c>
       <c r="F6" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="G6" t="n">
         <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="J6" t="n">
         <v>0.29</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="L6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -685,16 +685,16 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D7" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E7" t="n">
-        <v>26.65</v>
+        <v>26.48</v>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
@@ -706,13 +706,13 @@
         <v>-1.11</v>
       </c>
       <c r="J7" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="8">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D8" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E8" t="n">
-        <v>22.99</v>
+        <v>23.08</v>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -741,16 +741,16 @@
         <v>0.97</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.53</v>
+        <v>-0.51</v>
       </c>
       <c r="J8" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -798,25 +798,25 @@
         <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4830</v>
+        <v>4811</v>
       </c>
       <c r="E2" t="n">
-        <v>4846</v>
+        <v>4827</v>
       </c>
       <c r="F2" t="n">
-        <v>4882</v>
+        <v>4864</v>
       </c>
       <c r="G2" t="n">
-        <v>0.56</v>
+        <v>0.564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="3">
@@ -824,25 +824,25 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>4814</v>
+        <v>4795</v>
       </c>
       <c r="E3" t="n">
-        <v>4842</v>
+        <v>4823</v>
       </c>
       <c r="F3" t="n">
-        <v>4906</v>
+        <v>4887</v>
       </c>
       <c r="G3" t="n">
-        <v>0.572</v>
+        <v>0.578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.392</v>
+        <v>0.404</v>
       </c>
     </row>
   </sheetData>
